--- a/SAP.xlsx
+++ b/SAP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BF4CEB-34AF-4249-AD77-5677208E4FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229C4C64-2C4B-41DB-8289-5E8BEF92138F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15840" yWindow="2580" windowWidth="21900" windowHeight="14640" xr2:uid="{32DCA01F-B437-43C4-8293-E13203F995C7}"/>
+    <workbookView xWindow="20800" yWindow="710" windowWidth="17600" windowHeight="20070" activeTab="1" xr2:uid="{32DCA01F-B437-43C4-8293-E13203F995C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
-  <si>
-    <t>Price</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
   <si>
     <t>Shares</t>
   </si>
@@ -231,6 +228,30 @@
   </si>
   <si>
     <t>Extension</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Cash EUR</t>
+  </si>
+  <si>
+    <t>Debt EUR</t>
+  </si>
+  <si>
+    <t>Price EUR</t>
   </si>
 </sst>
 </file>
@@ -326,16 +347,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>52388</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>57910</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>93870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>52388</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>57910</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>9940</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -350,8 +371,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12565857" y="0"/>
-          <a:ext cx="0" cy="11006138"/>
+          <a:off x="16070953" y="93870"/>
+          <a:ext cx="0" cy="11130722"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -676,69 +697,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACDACA0-F2A2-47B8-8EFC-1E2513D7ED69}">
   <dimension ref="K2:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="6.453125" customWidth="1"/>
+    <col min="11" max="11" width="9.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K2" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="L2" s="1">
-        <v>291</v>
+        <v>225.35</v>
       </c>
     </row>
     <row r="3" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="4">
-        <v>1178</v>
+        <v>1164</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4" s="4">
         <f>L2*L3</f>
-        <v>342798</v>
+        <v>262307.39999999997</v>
       </c>
     </row>
     <row r="5" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K5" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="L5" s="4">
-        <v>17787</v>
+        <v>20956</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K6" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="L6" s="4">
-        <v>9592</v>
+        <v>9121</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L7" s="4">
         <f>L4-L5+L6</f>
-        <v>334603</v>
+        <v>250472.39999999997</v>
       </c>
     </row>
   </sheetData>
@@ -748,13 +773,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E87C550-93EA-49F8-8D50-E0A2F444052A}">
-  <dimension ref="A1:V52"/>
+  <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="X3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T27" sqref="T27"/>
+      <selection pane="bottomRight" activeCell="AI14" sqref="AI14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -765,79 +790,91 @@
     <col min="5" max="14" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="O2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O3" s="5">
         <v>2422</v>
@@ -851,12 +888,25 @@
       <c r="T3" s="5">
         <v>3414</v>
       </c>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U3" s="5">
+        <v>3636</v>
+      </c>
+      <c r="V3" s="5">
+        <v>3949</v>
+      </c>
+      <c r="W3" s="5">
+        <v>4251</v>
+      </c>
+      <c r="X3" s="5">
+        <v>4422</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>4586</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O4" s="5">
         <v>558</v>
@@ -873,9 +923,9 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O5" s="5">
         <v>197</v>
@@ -892,7 +942,7 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -902,9 +952,9 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -947,9 +997,9 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -974,7 +1024,7 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -988,9 +1038,9 @@
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
     </row>
-    <row r="10" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="5">
         <v>2011</v>
@@ -1046,10 +1096,25 @@
       <c r="T10" s="4">
         <v>4153</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U10" s="4">
+        <v>4351</v>
+      </c>
+      <c r="V10" s="4">
+        <v>4708</v>
+      </c>
+      <c r="W10" s="4">
+        <v>4993</v>
+      </c>
+      <c r="X10" s="4">
+        <v>5130</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>5290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1099,10 +1164,25 @@
       <c r="T11" s="4">
         <v>229</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U11" s="4">
+        <v>285</v>
+      </c>
+      <c r="V11" s="4">
+        <v>683</v>
+      </c>
+      <c r="W11" s="4">
+        <v>183</v>
+      </c>
+      <c r="X11" s="4">
+        <v>194</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1152,10 +1232,25 @@
       <c r="T12" s="4">
         <v>2792</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U12" s="4">
+        <v>2793</v>
+      </c>
+      <c r="V12" s="4">
+        <v>2876</v>
+      </c>
+      <c r="W12" s="4">
+        <v>2761</v>
+      </c>
+      <c r="X12" s="4">
+        <v>2642</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1201,10 +1296,25 @@
       <c r="T13" s="4">
         <v>1114</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="U13" s="4">
+        <v>1041</v>
+      </c>
+      <c r="V13" s="4">
+        <v>1110</v>
+      </c>
+      <c r="W13" s="4">
+        <v>1075</v>
+      </c>
+      <c r="X13" s="4">
+        <v>1061</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -1248,7 +1358,7 @@
         <v>7442</v>
       </c>
       <c r="P14" s="8">
-        <f t="shared" ref="P14:T14" si="1">SUM(P10:P13)</f>
+        <f t="shared" ref="P14:Z14" si="1">SUM(P10:P13)</f>
         <v>7554</v>
       </c>
       <c r="Q14" s="8">
@@ -1267,10 +1377,34 @@
         <f t="shared" si="1"/>
         <v>8288</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U14" s="8">
+        <f t="shared" si="1"/>
+        <v>8470</v>
+      </c>
+      <c r="V14" s="8">
+        <f t="shared" si="1"/>
+        <v>9377</v>
+      </c>
+      <c r="W14" s="8">
+        <f t="shared" si="1"/>
+        <v>9012</v>
+      </c>
+      <c r="X14" s="8">
+        <f t="shared" si="1"/>
+        <v>9027</v>
+      </c>
+      <c r="Y14" s="8">
+        <f t="shared" si="1"/>
+        <v>9076</v>
+      </c>
+      <c r="Z14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1324,10 +1458,25 @@
         <f>1434+837</f>
         <v>2271</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U15" s="4">
+        <v>2258</v>
+      </c>
+      <c r="V15" s="4">
+        <v>2435</v>
+      </c>
+      <c r="W15" s="4">
+        <v>2406</v>
+      </c>
+      <c r="X15" s="4">
+        <v>2407</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1392,10 +1541,30 @@
         <f t="shared" si="4"/>
         <v>6017</v>
       </c>
-    </row>
-    <row r="17" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U16" s="4">
+        <f>+U14-U15</f>
+        <v>6212</v>
+      </c>
+      <c r="V16" s="4">
+        <f>+V14-V15</f>
+        <v>6942</v>
+      </c>
+      <c r="W16" s="4">
+        <f>+W14-W15</f>
+        <v>6606</v>
+      </c>
+      <c r="X16" s="4">
+        <f>+X14-X15</f>
+        <v>6620</v>
+      </c>
+      <c r="Y16" s="4">
+        <f>+Y14-Y15</f>
+        <v>6671</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1441,10 +1610,25 @@
       <c r="T17" s="4">
         <v>1605</v>
       </c>
-    </row>
-    <row r="18" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U17" s="4">
+        <v>1568</v>
+      </c>
+      <c r="V17" s="4">
+        <v>1675</v>
+      </c>
+      <c r="W17" s="4">
+        <v>1673</v>
+      </c>
+      <c r="X17" s="4">
+        <v>1618</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1490,10 +1674,25 @@
       <c r="T18" s="4">
         <v>2217</v>
       </c>
-    </row>
-    <row r="19" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U18" s="4">
+        <v>2098</v>
+      </c>
+      <c r="V18" s="4">
+        <v>2496</v>
+      </c>
+      <c r="W18" s="4">
+        <v>2235</v>
+      </c>
+      <c r="X18" s="4">
+        <v>2156</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1539,10 +1738,25 @@
       <c r="T19" s="4">
         <v>336</v>
       </c>
-    </row>
-    <row r="20" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U19" s="4">
+        <v>361</v>
+      </c>
+      <c r="V19" s="4">
+        <v>378</v>
+      </c>
+      <c r="W19" s="4">
+        <v>358</v>
+      </c>
+      <c r="X19" s="4">
+        <v>361</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1607,16 +1821,36 @@
         <f t="shared" si="9"/>
         <v>4158</v>
       </c>
-    </row>
-    <row r="21" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U20" s="5">
+        <f t="shared" ref="U20:Y20" si="10">SUM(U17:U19)</f>
+        <v>4027</v>
+      </c>
+      <c r="V20" s="5">
+        <f t="shared" si="10"/>
+        <v>4549</v>
+      </c>
+      <c r="W20" s="5">
+        <f t="shared" si="10"/>
+        <v>4266</v>
+      </c>
+      <c r="X20" s="5">
+        <f t="shared" si="10"/>
+        <v>4135</v>
+      </c>
+      <c r="Y20" s="5">
+        <f t="shared" si="10"/>
+        <v>4193</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5">
-        <f t="shared" ref="F21" si="10">F16-F20</f>
+        <f t="shared" ref="F21" si="11">F16-F20</f>
         <v>2479</v>
       </c>
       <c r="G21" s="5">
@@ -1624,61 +1858,81 @@
         <v>1125</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" ref="H21:K21" si="11">H16-H20</f>
+        <f t="shared" ref="H21:K21" si="12">H16-H20</f>
         <v>6669</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6845</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1487.3999999999996</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1062</v>
       </c>
       <c r="L21" s="5">
-        <f t="shared" ref="L21:M21" si="12">L16-L20</f>
+        <f t="shared" ref="L21:M21" si="13">L16-L20</f>
         <v>1284</v>
       </c>
       <c r="M21" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1539</v>
       </c>
       <c r="N21" s="5">
-        <f t="shared" ref="N21:O21" si="13">N16-N20</f>
+        <f t="shared" ref="N21:O21" si="14">N16-N20</f>
         <v>1864</v>
       </c>
       <c r="O21" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1074</v>
       </c>
       <c r="P21" s="5">
-        <f t="shared" ref="P21:T21" si="14">P16-P20</f>
+        <f t="shared" ref="P21:T21" si="15">P16-P20</f>
         <v>1357</v>
       </c>
       <c r="Q21" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1689</v>
       </c>
       <c r="R21" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1898</v>
       </c>
       <c r="S21" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1459</v>
       </c>
       <c r="T21" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1859</v>
       </c>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U21" s="5">
+        <f t="shared" ref="U21:Y21" si="16">U16-U20</f>
+        <v>2185</v>
+      </c>
+      <c r="V21" s="5">
+        <f t="shared" si="16"/>
+        <v>2393</v>
+      </c>
+      <c r="W21" s="5">
+        <f t="shared" si="16"/>
+        <v>2340</v>
+      </c>
+      <c r="X21" s="5">
+        <f t="shared" si="16"/>
+        <v>2485</v>
+      </c>
+      <c r="Y21" s="5">
+        <f t="shared" si="16"/>
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" s="2">
         <v>107</v>
@@ -1725,10 +1979,26 @@
       <c r="T22" s="4">
         <v>170</v>
       </c>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U22" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V22" s="4">
+        <v>273</v>
+      </c>
+      <c r="W22">
+        <f>405-280</f>
+        <v>125</v>
+      </c>
+      <c r="X22" s="4">
+        <v>49</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23" s="5">
         <f>F21+F22</f>
@@ -1739,61 +2009,81 @@
         <v>1440</v>
       </c>
       <c r="H23" s="5">
-        <f t="shared" ref="H23:K23" si="15">H21+H22</f>
+        <f t="shared" ref="H23:K23" si="17">H21+H22</f>
         <v>6669</v>
       </c>
       <c r="I23" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6845</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2010.3999999999996</v>
       </c>
       <c r="K23" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1006</v>
       </c>
       <c r="L23" s="4">
-        <f t="shared" ref="L23:N23" si="16">+L21+L22</f>
+        <f t="shared" ref="L23:N23" si="18">+L21+L22</f>
         <v>1071</v>
       </c>
       <c r="M23" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1216</v>
       </c>
       <c r="N23" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>980</v>
       </c>
       <c r="O23" s="4">
-        <f t="shared" ref="O23:T23" si="17">+O21+O22</f>
+        <f t="shared" ref="O23:Y23" si="19">+O21+O22</f>
         <v>954</v>
       </c>
       <c r="P23" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1182</v>
       </c>
       <c r="Q23" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1612</v>
       </c>
       <c r="R23" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1787</v>
       </c>
       <c r="S23" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1410</v>
       </c>
       <c r="T23" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2029</v>
       </c>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U23" s="4">
+        <f t="shared" si="19"/>
+        <v>2184</v>
+      </c>
+      <c r="V23" s="4">
+        <f t="shared" si="19"/>
+        <v>2666</v>
+      </c>
+      <c r="W23" s="4">
+        <f t="shared" si="19"/>
+        <v>2465</v>
+      </c>
+      <c r="X23" s="4">
+        <f t="shared" si="19"/>
+        <v>2534</v>
+      </c>
+      <c r="Y23" s="4">
+        <f t="shared" si="19"/>
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F24" s="2">
         <v>772</v>
@@ -1845,10 +2135,25 @@
         <f>469+30</f>
         <v>499</v>
       </c>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U24">
+        <v>710</v>
+      </c>
+      <c r="V24">
+        <v>591</v>
+      </c>
+      <c r="W24">
+        <v>672</v>
+      </c>
+      <c r="X24">
+        <v>753</v>
+      </c>
+      <c r="Y24">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" s="5">
         <f>F23-F24</f>
@@ -1859,118 +2164,158 @@
         <v>1173</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" ref="H25:K25" si="18">H23-H24</f>
+        <f t="shared" ref="H25:K25" si="20">H23-H24</f>
         <v>6669</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>6845</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1497.3999999999996</v>
       </c>
       <c r="K25" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>693</v>
       </c>
       <c r="L25" s="4">
-        <f t="shared" ref="L25:N25" si="19">+L23-L24</f>
+        <f t="shared" ref="L25:N25" si="21">+L23-L24</f>
         <v>774</v>
       </c>
       <c r="M25" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>926</v>
       </c>
       <c r="N25" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>672</v>
       </c>
       <c r="O25" s="4">
-        <f t="shared" ref="O25:T25" si="20">+O23-O24</f>
+        <f t="shared" ref="O25:Y25" si="22">+O23-O24</f>
         <v>683</v>
       </c>
       <c r="P25" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>817</v>
       </c>
       <c r="Q25" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1129</v>
       </c>
       <c r="R25" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1212</v>
       </c>
       <c r="S25" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1249</v>
       </c>
       <c r="T25" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1530</v>
       </c>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U25" s="4">
+        <f t="shared" si="22"/>
+        <v>1474</v>
+      </c>
+      <c r="V25" s="4">
+        <f t="shared" si="22"/>
+        <v>2075</v>
+      </c>
+      <c r="W25" s="4">
+        <f t="shared" si="22"/>
+        <v>1793</v>
+      </c>
+      <c r="X25" s="4">
+        <f t="shared" si="22"/>
+        <v>1781</v>
+      </c>
+      <c r="Y25" s="4">
+        <f t="shared" si="22"/>
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26" s="9">
         <f>F25/F27</f>
         <v>1.5372881355932204</v>
       </c>
       <c r="G26" s="9">
-        <f t="shared" ref="G26" si="21">G25/G27</f>
+        <f t="shared" ref="G26" si="23">G25/G27</f>
         <v>0.99406779661016953</v>
       </c>
       <c r="J26" s="9">
-        <f t="shared" ref="J26:K26" si="22">J25/J27</f>
+        <f t="shared" ref="J26:K26" si="24">J25/J27</f>
         <v>1.2689830508474573</v>
       </c>
       <c r="K26" s="9">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.5882852292020373</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" ref="L26:N26" si="23">+L25/L27</f>
+        <f t="shared" ref="L26:N26" si="25">+L25/L27</f>
         <v>0.65984654731457804</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.78942881500426254</v>
       </c>
       <c r="N26" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.57337883959044367</v>
       </c>
       <c r="O26" s="1">
-        <f t="shared" ref="O26:T26" si="24">+O25/O27</f>
+        <f t="shared" ref="O26:Y26" si="26">+O25/O27</f>
         <v>0.58177172061328786</v>
       </c>
       <c r="P26" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.69237288135593222</v>
       </c>
       <c r="Q26" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0.95677966101694911</v>
       </c>
       <c r="R26" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.0288624787775891</v>
       </c>
       <c r="S26" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.0593723494486853</v>
       </c>
       <c r="T26" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1.298811544991511</v>
       </c>
-    </row>
-    <row r="27" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U26" s="1">
+        <f t="shared" si="26"/>
+        <v>1.2641509433962264</v>
+      </c>
+      <c r="V26" s="1">
+        <f t="shared" si="26"/>
+        <v>1.7795883361921099</v>
+      </c>
+      <c r="W26" s="1">
+        <f t="shared" si="26"/>
+        <v>1.5364181662382177</v>
+      </c>
+      <c r="X26" s="1">
+        <f t="shared" si="26"/>
+        <v>1.5274442538593482</v>
+      </c>
+      <c r="Y26" s="1">
+        <f t="shared" si="26"/>
+        <v>1.7147766323024054</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -2016,37 +2361,52 @@
       <c r="T27" s="4">
         <v>1178</v>
       </c>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U27" s="4">
+        <v>1166</v>
+      </c>
+      <c r="V27" s="4">
+        <v>1166</v>
+      </c>
+      <c r="W27" s="4">
+        <v>1167</v>
+      </c>
+      <c r="X27" s="4">
+        <v>1166</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J30" s="6">
         <f>J14/F14-1</f>
         <v>5.86019365963657E-2</v>
       </c>
       <c r="K30" s="10">
-        <f t="shared" ref="K30:P30" si="25">+K14/G14-1</f>
+        <f t="shared" ref="K30:P30" si="27">+K14/G14-1</f>
         <v>0.11483931947069936</v>
       </c>
       <c r="L30" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>8.052181736392261E-2</v>
       </c>
       <c r="M30" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9.2330168005843705E-2</v>
       </c>
       <c r="N30" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.0299719326383405E-2</v>
       </c>
       <c r="O30" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5.1575526352974466E-2</v>
       </c>
       <c r="P30" s="10">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.8293089092422914E-2</v>
       </c>
       <c r="Q30" s="10">
@@ -2065,205 +2425,422 @@
         <f>+T14/P14-1</f>
         <v>9.7167063807254372E-2</v>
       </c>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U30" s="10">
+        <f>+U14/Q14-1</f>
+        <v>9.375E-2</v>
+      </c>
+      <c r="V30" s="10">
+        <f t="shared" ref="V30:Y30" si="28">+V14/R14-1</f>
+        <v>0.10747608361875516</v>
+      </c>
+      <c r="W30" s="10">
+        <f t="shared" si="28"/>
+        <v>0.12075612486009213</v>
+      </c>
+      <c r="X30" s="10">
+        <f t="shared" si="28"/>
+        <v>8.9165057915058021E-2</v>
+      </c>
+      <c r="Y30" s="10">
+        <f t="shared" si="28"/>
+        <v>7.1546635182998752E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="T32" s="4">
+        <f>+T33-T45</f>
+        <v>8195</v>
+      </c>
+      <c r="U32" s="4">
+        <f>+U33-U45</f>
+        <v>0</v>
+      </c>
+      <c r="V32" s="4">
+        <f t="shared" ref="V32:Y32" si="29">+V33-V45</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="4">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="X32" s="4">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Y32" s="4">
+        <f t="shared" si="29"/>
+        <v>11835</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="T33" s="4">
         <f>7870+3808+6109</f>
         <v>17787</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4">
+        <f>8554+1380+3964+7058</f>
+        <v>20956</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="T34" s="4">
+        <v>6148</v>
+      </c>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4">
+        <v>5778</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>50</v>
       </c>
-      <c r="T33" s="4">
-        <v>6148</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>51</v>
-      </c>
-      <c r="T34" s="4">
+      <c r="T35" s="4">
         <f>2531+3515</f>
         <v>6046</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-      <c r="T35" s="4">
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="T36" s="4">
         <f>539+346</f>
         <v>885</v>
       </c>
-    </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>52</v>
-      </c>
-      <c r="T36" s="4">
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4">
+        <f>418+317</f>
+        <v>735</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>51</v>
+      </c>
+      <c r="T37" s="4">
         <f>29777+2365</f>
         <v>32142</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4">
+        <f>29028+2390</f>
+        <v>31418</v>
+      </c>
+    </row>
+    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="T38" s="4">
+        <v>4255</v>
+      </c>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4">
+        <v>4396</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>53</v>
       </c>
-      <c r="T37" s="4">
-        <v>4255</v>
-      </c>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="T39" s="4">
+        <v>121</v>
+      </c>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>54</v>
       </c>
-      <c r="T38" s="4">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="T40" s="4">
+        <v>2993</v>
+      </c>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>55</v>
       </c>
-      <c r="T39" s="4">
-        <v>2993</v>
-      </c>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="T41" s="4">
+        <f>SUM(T33:T40)</f>
+        <v>70377</v>
+      </c>
+      <c r="U41" s="4">
+        <f t="shared" ref="U41:Y41" si="30">SUM(U33:U40)</f>
+        <v>0</v>
+      </c>
+      <c r="V41" s="4">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="W41" s="4">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="X41" s="4">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="Y41" s="4">
+        <f t="shared" si="30"/>
+        <v>68396</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>56</v>
       </c>
-      <c r="T40" s="4">
-        <f>SUM(T32:T39)</f>
-        <v>70377</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>57</v>
-      </c>
-      <c r="T42" s="4">
+      <c r="T43" s="4">
         <f>1875+20</f>
         <v>1895</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>38</v>
-      </c>
-      <c r="T43" s="4">
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+      <c r="T44" s="4">
         <f>439+818</f>
         <v>1257</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>4</v>
-      </c>
-      <c r="T44" s="4">
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4">
+        <f>934+554</f>
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="T45" s="4">
         <f>2271+7321</f>
         <v>9592</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>51</v>
-      </c>
-      <c r="T45" s="4">
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4">
+        <f>3032+6089</f>
+        <v>9121</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="T46" s="4">
         <f>4002+850</f>
         <v>4852</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>58</v>
-      </c>
-      <c r="T46" s="4">
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4">
+        <f>4152+3+520</f>
+        <v>4675</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+      <c r="T47" s="4">
         <f>2341+444</f>
         <v>2785</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>59</v>
-      </c>
-      <c r="T47" s="4">
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4">
+        <f>170+547</f>
+        <v>717</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>58</v>
+      </c>
+      <c r="T48" s="4">
         <f>7734+55</f>
         <v>7789</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4">
+        <f>6749+145</f>
+        <v>6894</v>
+      </c>
+    </row>
+    <row r="49" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+      <c r="T49" s="4">
+        <v>267</v>
+      </c>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="50" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>60</v>
       </c>
-      <c r="T48" s="4">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+      <c r="T50" s="4">
+        <v>41942</v>
+      </c>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4">
+        <v>43241</v>
+      </c>
+    </row>
+    <row r="51" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>61</v>
       </c>
-      <c r="T49" s="4">
-        <v>41942</v>
-      </c>
-    </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>62</v>
-      </c>
-      <c r="T50" s="4">
-        <f>SUM(T42:T49)</f>
+      <c r="T51" s="4">
+        <f>SUM(T43:T50)</f>
         <v>70379</v>
       </c>
-    </row>
-    <row r="52" spans="2:20" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5">
+      <c r="U51" s="4">
+        <f t="shared" ref="U51:Y51" si="31">SUM(U43:U50)</f>
+        <v>0</v>
+      </c>
+      <c r="V51" s="4">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="W51" s="4">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="X51" s="4">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Y51" s="4">
+        <f t="shared" si="31"/>
+        <v>68397</v>
+      </c>
+    </row>
+    <row r="53" spans="2:25" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5">
         <v>103142</v>
       </c>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5">
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5">
         <v>104670</v>
       </c>
-      <c r="L52" s="5">
+      <c r="L53" s="5">
         <v>104988</v>
       </c>
-      <c r="M52" s="5">
+      <c r="M53" s="5">
         <v>106912</v>
       </c>
-      <c r="N52" s="5">
+      <c r="N53" s="5">
         <v>106312</v>
       </c>
-      <c r="O52" s="5">
+      <c r="O53" s="5">
         <v>105132</v>
       </c>
-      <c r="P52" s="5">
+      <c r="P53" s="5">
         <v>105328</v>
       </c>
-      <c r="Q52" s="5">
+      <c r="Q53" s="5">
         <v>106495</v>
       </c>
-      <c r="R52" s="5">
+      <c r="R53" s="5">
         <v>107602</v>
       </c>
-      <c r="S52" s="5">
+      <c r="S53" s="5">
         <v>108133</v>
       </c>
-      <c r="T52" s="5"/>
+      <c r="T53" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
